--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.058258</v>
+        <v>6.9745285</v>
       </c>
       <c r="H2">
-        <v>26.116516</v>
+        <v>13.949057</v>
       </c>
       <c r="I2">
-        <v>0.06737388604429712</v>
+        <v>0.0400753517728026</v>
       </c>
       <c r="J2">
-        <v>0.04635632728113229</v>
+        <v>0.02752929218001018</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N2">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O2">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P2">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q2">
-        <v>196.65919363612</v>
+        <v>51.398425105268</v>
       </c>
       <c r="R2">
-        <v>786.63677454448</v>
+        <v>205.593700421072</v>
       </c>
       <c r="S2">
-        <v>0.05024153589349957</v>
+        <v>0.02986659043764212</v>
       </c>
       <c r="T2">
-        <v>0.03066909674084745</v>
+        <v>0.0181985605085974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.058258</v>
+        <v>6.9745285</v>
       </c>
       <c r="H3">
-        <v>26.116516</v>
+        <v>13.949057</v>
       </c>
       <c r="I3">
-        <v>0.06737388604429712</v>
+        <v>0.0400753517728026</v>
       </c>
       <c r="J3">
-        <v>0.04635632728113229</v>
+        <v>0.02752929218001018</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P3">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q3">
-        <v>1.441805793306666</v>
+        <v>0.7700809401133333</v>
       </c>
       <c r="R3">
-        <v>8.650834759839999</v>
+        <v>4.620485640679999</v>
       </c>
       <c r="S3">
-        <v>0.0003683455432544186</v>
+        <v>0.0004474785364550405</v>
       </c>
       <c r="T3">
-        <v>0.0003372754703621052</v>
+        <v>0.0004089920427464718</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.058258</v>
+        <v>6.9745285</v>
       </c>
       <c r="H4">
-        <v>26.116516</v>
+        <v>13.949057</v>
       </c>
       <c r="I4">
-        <v>0.06737388604429712</v>
+        <v>0.0400753517728026</v>
       </c>
       <c r="J4">
-        <v>0.04635632728113229</v>
+        <v>0.02752929218001018</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N4">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O4">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P4">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q4">
-        <v>0.71265443035</v>
+        <v>0.5917399215255</v>
       </c>
       <c r="R4">
-        <v>4.275926582099999</v>
+        <v>3.550439529153</v>
       </c>
       <c r="S4">
-        <v>0.0001820654935072144</v>
+        <v>0.000343848159658752</v>
       </c>
       <c r="T4">
-        <v>0.00016670820669314</v>
+        <v>0.0003142746517576885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.058258</v>
+        <v>6.9745285</v>
       </c>
       <c r="H5">
-        <v>26.116516</v>
+        <v>13.949057</v>
       </c>
       <c r="I5">
-        <v>0.06737388604429712</v>
+        <v>0.0400753517728026</v>
       </c>
       <c r="J5">
-        <v>0.04635632728113229</v>
+        <v>0.02752929218001018</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N5">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O5">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P5">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q5">
-        <v>64.90627161562267</v>
+        <v>16.206781620735</v>
       </c>
       <c r="R5">
-        <v>389.437629693736</v>
+        <v>97.24068972441</v>
       </c>
       <c r="S5">
-        <v>0.01658193911403591</v>
+        <v>0.009417434639046693</v>
       </c>
       <c r="T5">
-        <v>0.01518324686322959</v>
+        <v>0.008607464976908624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>121.721846</v>
       </c>
       <c r="I6">
-        <v>0.2093406788129903</v>
+        <v>0.2331362278651957</v>
       </c>
       <c r="J6">
-        <v>0.21605399933282</v>
+        <v>0.2402252900123789</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N6">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O6">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P6">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q6">
-        <v>611.0493472728134</v>
+        <v>299.0076048536694</v>
       </c>
       <c r="R6">
-        <v>3666.29608363688</v>
+        <v>1794.045629122016</v>
       </c>
       <c r="S6">
-        <v>0.1561079202354053</v>
+        <v>0.1737473016656608</v>
       </c>
       <c r="T6">
-        <v>0.1429401636285842</v>
+        <v>0.1588037370303365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>121.721846</v>
       </c>
       <c r="I7">
-        <v>0.2093406788129903</v>
+        <v>0.2331362278651957</v>
       </c>
       <c r="J7">
-        <v>0.21605399933282</v>
+        <v>0.2402252900123789</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P7">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q7">
         <v>4.479904918782221</v>
@@ -889,10 +889,10 @@
         <v>40.31914426904</v>
       </c>
       <c r="S7">
-        <v>0.001144504356063437</v>
+        <v>0.002603182590416247</v>
       </c>
       <c r="T7">
-        <v>0.001571947531707282</v>
+        <v>0.003568934189774367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>121.721846</v>
       </c>
       <c r="I8">
-        <v>0.2093406788129903</v>
+        <v>0.2331362278651957</v>
       </c>
       <c r="J8">
-        <v>0.21605399933282</v>
+        <v>0.2402252900123789</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N8">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O8">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P8">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q8">
-        <v>2.214323248483334</v>
+        <v>3.442415526726</v>
       </c>
       <c r="R8">
-        <v>19.92890923635</v>
+        <v>30.981739740534</v>
       </c>
       <c r="S8">
-        <v>0.0005657045516739714</v>
+        <v>0.002000318384120447</v>
       </c>
       <c r="T8">
-        <v>0.0007769807681100555</v>
+        <v>0.002742414111789276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>121.721846</v>
       </c>
       <c r="I9">
-        <v>0.2093406788129903</v>
+        <v>0.2331362278651957</v>
       </c>
       <c r="J9">
-        <v>0.21605399933282</v>
+        <v>0.2402252900123789</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N9">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O9">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P9">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q9">
-        <v>201.6734339815463</v>
+        <v>94.28209025622</v>
       </c>
       <c r="R9">
-        <v>1815.060905833916</v>
+        <v>848.5388123059801</v>
       </c>
       <c r="S9">
-        <v>0.05152254966984762</v>
+        <v>0.05478542522499823</v>
       </c>
       <c r="T9">
-        <v>0.07076490740441854</v>
+        <v>0.07511020468047877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>66.06361933333334</v>
+        <v>16.42157633333333</v>
       </c>
       <c r="H10">
-        <v>198.190858</v>
+        <v>49.264729</v>
       </c>
       <c r="I10">
-        <v>0.3408542518181081</v>
+        <v>0.09435769718659309</v>
       </c>
       <c r="J10">
-        <v>0.3517850649595228</v>
+        <v>0.09722686765205855</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N10">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O10">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P10">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q10">
-        <v>994.9273560667067</v>
+        <v>121.0179528665307</v>
       </c>
       <c r="R10">
-        <v>5969.56413640024</v>
+        <v>726.1077171991841</v>
       </c>
       <c r="S10">
-        <v>0.2541792099673754</v>
+        <v>0.0703210969297987</v>
       </c>
       <c r="T10">
-        <v>0.2327391064395251</v>
+        <v>0.06427295778102801</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>66.06361933333334</v>
+        <v>16.42157633333333</v>
       </c>
       <c r="H11">
-        <v>198.190858</v>
+        <v>49.264729</v>
       </c>
       <c r="I11">
-        <v>0.3408542518181081</v>
+        <v>0.09435769718659309</v>
       </c>
       <c r="J11">
-        <v>0.3517850649595228</v>
+        <v>0.09722686765205855</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P11">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q11">
-        <v>7.294304422657778</v>
+        <v>1.813160981551111</v>
       </c>
       <c r="R11">
-        <v>65.64873980391999</v>
+        <v>16.31844883396</v>
       </c>
       <c r="S11">
-        <v>0.001863513475740009</v>
+        <v>0.001053591356594891</v>
       </c>
       <c r="T11">
-        <v>0.002559488212494316</v>
+        <v>0.001444461955317937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>66.06361933333334</v>
+        <v>16.42157633333333</v>
       </c>
       <c r="H12">
-        <v>198.190858</v>
+        <v>49.264729</v>
       </c>
       <c r="I12">
-        <v>0.3408542518181081</v>
+        <v>0.09435769718659309</v>
       </c>
       <c r="J12">
-        <v>0.3517850649595228</v>
+        <v>0.09722686765205855</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N12">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O12">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P12">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q12">
-        <v>3.605422025116667</v>
+        <v>1.393255800849</v>
       </c>
       <c r="R12">
-        <v>32.44879822605</v>
+        <v>12.539302207641</v>
       </c>
       <c r="S12">
-        <v>0.0009210957125212326</v>
+        <v>0.0008095929066620609</v>
       </c>
       <c r="T12">
-        <v>0.001265101459940321</v>
+        <v>0.001109942811934305</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>66.06361933333334</v>
+        <v>16.42157633333333</v>
       </c>
       <c r="H13">
-        <v>198.190858</v>
+        <v>49.264729</v>
       </c>
       <c r="I13">
-        <v>0.3408542518181081</v>
+        <v>0.09435769718659309</v>
       </c>
       <c r="J13">
-        <v>0.3517850649595228</v>
+        <v>0.09722686765205855</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N13">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O13">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P13">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q13">
-        <v>328.3702328718298</v>
+        <v>38.15898114153001</v>
       </c>
       <c r="R13">
-        <v>2955.332095846468</v>
+        <v>343.43083027377</v>
       </c>
       <c r="S13">
-        <v>0.08389043266247144</v>
+        <v>0.02217341599353745</v>
       </c>
       <c r="T13">
-        <v>0.115221368847563</v>
+        <v>0.03039950510377832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.0089055</v>
+        <v>8.432852499999999</v>
       </c>
       <c r="H14">
-        <v>10.017811</v>
+        <v>16.865705</v>
       </c>
       <c r="I14">
-        <v>0.02584337270435713</v>
+        <v>0.04845482105143851</v>
       </c>
       <c r="J14">
-        <v>0.01778142709986765</v>
+        <v>0.03328547017671937</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N14">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O14">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P14">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q14">
-        <v>75.43481807677</v>
+        <v>62.14546799041999</v>
       </c>
       <c r="R14">
-        <v>301.73927230708</v>
+        <v>248.58187196168</v>
       </c>
       <c r="S14">
-        <v>0.01927172104161194</v>
+        <v>0.0361114807744418</v>
       </c>
       <c r="T14">
-        <v>0.01176409650852839</v>
+        <v>0.02200374928302707</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.0089055</v>
+        <v>8.432852499999999</v>
       </c>
       <c r="H15">
-        <v>10.017811</v>
+        <v>16.865705</v>
       </c>
       <c r="I15">
-        <v>0.02584337270435713</v>
+        <v>0.04845482105143851</v>
       </c>
       <c r="J15">
-        <v>0.01778142709986765</v>
+        <v>0.03328547017671937</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P15">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q15">
-        <v>0.5530499526066666</v>
+        <v>0.9310993540333331</v>
       </c>
       <c r="R15">
-        <v>3.31829971564</v>
+        <v>5.586596124199999</v>
       </c>
       <c r="S15">
-        <v>0.0001412905165074503</v>
+        <v>0.0005410430962955028</v>
       </c>
       <c r="T15">
-        <v>0.0001293726129864976</v>
+        <v>0.000494509352159747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.0089055</v>
+        <v>8.432852499999999</v>
       </c>
       <c r="H16">
-        <v>10.017811</v>
+        <v>16.865705</v>
       </c>
       <c r="I16">
-        <v>0.02584337270435713</v>
+        <v>0.04845482105143851</v>
       </c>
       <c r="J16">
-        <v>0.01778142709986765</v>
+        <v>0.03328547017671937</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N16">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O16">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P16">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q16">
-        <v>0.2733610176625</v>
+        <v>0.7154685046574999</v>
       </c>
       <c r="R16">
-        <v>1.640166105975</v>
+        <v>4.292811027945</v>
       </c>
       <c r="S16">
-        <v>6.983694546305492E-05</v>
+        <v>0.0004157443492845009</v>
       </c>
       <c r="T16">
-        <v>6.394617516367081E-05</v>
+        <v>0.0003799872325077534</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.0089055</v>
+        <v>8.432852499999999</v>
       </c>
       <c r="H17">
-        <v>10.017811</v>
+        <v>16.865705</v>
       </c>
       <c r="I17">
-        <v>0.02584337270435713</v>
+        <v>0.04845482105143851</v>
       </c>
       <c r="J17">
-        <v>0.01778142709986765</v>
+        <v>0.03328547017671937</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N17">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O17">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P17">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q17">
-        <v>24.89684159096767</v>
+        <v>19.595503682775</v>
       </c>
       <c r="R17">
-        <v>149.381049545806</v>
+        <v>117.57302209665</v>
       </c>
       <c r="S17">
-        <v>0.006360524200774682</v>
+        <v>0.0113865528314167</v>
       </c>
       <c r="T17">
-        <v>0.005824011803189097</v>
+        <v>0.01040722430902481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.479108333333333</v>
+        <v>13.375494</v>
       </c>
       <c r="H18">
-        <v>16.437325</v>
+        <v>40.126482</v>
       </c>
       <c r="I18">
-        <v>0.0282693771615141</v>
+        <v>0.07685503431307371</v>
       </c>
       <c r="J18">
-        <v>0.02917594434595863</v>
+        <v>0.07919199463690765</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N18">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O18">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P18">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q18">
-        <v>82.51613857516668</v>
+        <v>98.57000750731198</v>
       </c>
       <c r="R18">
-        <v>495.0968314510001</v>
+        <v>591.4200450438719</v>
       </c>
       <c r="S18">
-        <v>0.0210808224185446</v>
+        <v>0.05727704764546299</v>
       </c>
       <c r="T18">
-        <v>0.01930264781817569</v>
+        <v>0.05235079408408356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.479108333333333</v>
+        <v>13.375494</v>
       </c>
       <c r="H19">
-        <v>16.437325</v>
+        <v>40.126482</v>
       </c>
       <c r="I19">
-        <v>0.0282693771615141</v>
+        <v>0.07685503431307371</v>
       </c>
       <c r="J19">
-        <v>0.02917594434595863</v>
+        <v>0.07919199463690765</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>0.33124</v>
       </c>
       <c r="O19">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P19">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q19">
-        <v>0.6049666147777777</v>
+        <v>1.47683287752</v>
       </c>
       <c r="R19">
-        <v>5.444699533</v>
+        <v>13.29149589768</v>
       </c>
       <c r="S19">
-        <v>0.0001545539332728362</v>
+        <v>0.0008581578639306117</v>
       </c>
       <c r="T19">
-        <v>0.0002122758839988378</v>
+        <v>0.00117652482468238</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.479108333333333</v>
+        <v>13.375494</v>
       </c>
       <c r="H20">
-        <v>16.437325</v>
+        <v>40.126482</v>
       </c>
       <c r="I20">
-        <v>0.0282693771615141</v>
+        <v>0.07685503431307371</v>
       </c>
       <c r="J20">
-        <v>0.02917594434595863</v>
+        <v>0.07919199463690765</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N20">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O20">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P20">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q20">
-        <v>0.2990223372916667</v>
+        <v>1.134817037442</v>
       </c>
       <c r="R20">
-        <v>2.691201035625</v>
+        <v>10.213353336978</v>
       </c>
       <c r="S20">
-        <v>7.639277480103583E-05</v>
+        <v>0.0006594193423149219</v>
       </c>
       <c r="T20">
-        <v>0.0001049235270731486</v>
+        <v>0.0009040565363530419</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.479108333333333</v>
+        <v>13.375494</v>
       </c>
       <c r="H21">
-        <v>16.437325</v>
+        <v>40.126482</v>
       </c>
       <c r="I21">
-        <v>0.0282693771615141</v>
+        <v>0.07685503431307371</v>
       </c>
       <c r="J21">
-        <v>0.02917594434595863</v>
+        <v>0.07919199463690765</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N21">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O21">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P21">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q21">
-        <v>27.23399198382778</v>
+        <v>31.08076916274</v>
       </c>
       <c r="R21">
-        <v>245.10592785445</v>
+        <v>279.72692246466</v>
       </c>
       <c r="S21">
-        <v>0.006957608034895627</v>
+        <v>0.01806040946136519</v>
       </c>
       <c r="T21">
-        <v>0.009556097116710949</v>
+        <v>0.02476061919178868</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>63.63395466666667</v>
+        <v>88.25696566666666</v>
       </c>
       <c r="H22">
-        <v>190.901864</v>
+        <v>264.770897</v>
       </c>
       <c r="I22">
-        <v>0.3283184334587332</v>
+        <v>0.5071208678108963</v>
       </c>
       <c r="J22">
-        <v>0.3388472369806986</v>
+        <v>0.5225410853419253</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N22">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O22">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P22">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q22">
-        <v>958.3362660336535</v>
+        <v>650.4051191182853</v>
       </c>
       <c r="R22">
-        <v>5750.017596201921</v>
+        <v>3902.430714709712</v>
       </c>
       <c r="S22">
-        <v>0.2448310959571069</v>
+        <v>0.3779373253454159</v>
       </c>
       <c r="T22">
-        <v>0.2241795090518239</v>
+        <v>0.3454318947847234</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>63.63395466666667</v>
+        <v>88.25696566666666</v>
       </c>
       <c r="H23">
-        <v>190.901864</v>
+        <v>264.770897</v>
       </c>
       <c r="I23">
-        <v>0.3283184334587332</v>
+        <v>0.5071208678108963</v>
       </c>
       <c r="J23">
-        <v>0.3388472369806986</v>
+        <v>0.5225410853419253</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>0.33124</v>
       </c>
       <c r="O23">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P23">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q23">
-        <v>7.026037047928889</v>
+        <v>9.74474576914222</v>
       </c>
       <c r="R23">
-        <v>63.23433343136</v>
+        <v>87.70271192227999</v>
       </c>
       <c r="S23">
-        <v>0.001794977829440986</v>
+        <v>0.005662475653871477</v>
       </c>
       <c r="T23">
-        <v>0.002465356250948735</v>
+        <v>0.007763190732093624</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>63.63395466666667</v>
+        <v>88.25696566666666</v>
       </c>
       <c r="H24">
-        <v>190.901864</v>
+        <v>264.770897</v>
       </c>
       <c r="I24">
-        <v>0.3283184334587332</v>
+        <v>0.5071208678108963</v>
       </c>
       <c r="J24">
-        <v>0.3388472369806986</v>
+        <v>0.5225410853419253</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N24">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O24">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P24">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q24">
-        <v>3.472823075933334</v>
+        <v>7.487985738057</v>
       </c>
       <c r="R24">
-        <v>31.2554076834</v>
+        <v>67.391871642513</v>
       </c>
       <c r="S24">
-        <v>0.0008872199768301697</v>
+        <v>0.004351117817003543</v>
       </c>
       <c r="T24">
-        <v>0.001218574001287833</v>
+        <v>0.005965333817923735</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>63.63395466666667</v>
+        <v>88.25696566666666</v>
       </c>
       <c r="H25">
-        <v>190.901864</v>
+        <v>264.770897</v>
       </c>
       <c r="I25">
-        <v>0.3283184334587332</v>
+        <v>0.5071208678108963</v>
       </c>
       <c r="J25">
-        <v>0.3388472369806986</v>
+        <v>0.5225410853419253</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N25">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O25">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P25">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q25">
-        <v>316.293547391305</v>
+        <v>205.08359368929</v>
       </c>
       <c r="R25">
-        <v>2846.641926521745</v>
+        <v>1845.75234320361</v>
       </c>
       <c r="S25">
-        <v>0.08080513969535508</v>
+        <v>0.1191699489946054</v>
       </c>
       <c r="T25">
-        <v>0.1109837976766381</v>
+        <v>0.1633806660071846</v>
       </c>
     </row>
   </sheetData>
